--- a/sql server.xlsx
+++ b/sql server.xlsx
@@ -6682,13 +6682,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1921" workbookViewId="0">
-      <selection activeCell="U1924" sqref="U1924"/>
+    <sheetView tabSelected="1" topLeftCell="A2101" workbookViewId="0">
+      <selection activeCell="H2132" sqref="H2132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
